--- a/output/Export_Lead.xlsx
+++ b/output/Export_Lead.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -169,7 +169,7 @@
     <t>Ophthalmologist</t>
   </si>
   <si>
-    <t>Converted</t>
+    <t>In Process</t>
   </si>
   <si>
     <t>Call</t>
@@ -210,9 +210,6 @@
     <t>Magik Grey</t>
   </si>
   <si>
-    <t>venda b2B</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>Sales Manager</t>
   </si>
   <si>
-    <t>In Process</t>
-  </si>
-  <si>
     <t>Partner</t>
   </si>
   <si>
@@ -547,6 +541,9 @@
   </si>
   <si>
     <t>HR Manager</t>
+  </si>
+  <si>
+    <t>Converted</t>
   </si>
   <si>
     <t>www.carpo_town.co.de</t>
@@ -1479,8 +1476,8 @@
     <col min="28" max="28" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="20.281" bestFit="true" customWidth="true" style="0"/>
     <col min="30" max="30" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="17.71" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.71" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="36.991" bestFit="true" customWidth="true" style="0"/>
@@ -1686,14 +1683,12 @@
         <v>0</v>
       </c>
       <c r="V2" s="4"/>
-      <c r="W2" s="5">
-        <v>46065.61042824073957</v>
-      </c>
+      <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y2" s="5">
-        <v>46065.61042824073957</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1708,15 +1703,9 @@
         <v>61</v>
       </c>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4" t="b">
         <v>0</v>
@@ -1725,7 +1714,7 @@
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN2" s="4" t="b">
         <v>0</v>
@@ -1739,62 +1728,60 @@
       <c r="AQ2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" s="5">
-        <v>46065.63290509259241</v>
-      </c>
+      <c r="AR2" s="5"/>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -1802,10 +1789,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y3" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1814,10 +1801,10 @@
         <v>61</v>
       </c>
       <c r="AB3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -1831,7 +1818,7 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN3" s="4" t="b">
         <v>0</v>
@@ -1849,56 +1836,56 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -1906,10 +1893,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y4" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1918,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>61</v>
@@ -1935,7 +1922,7 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN4" s="4" t="b">
         <v>0</v>
@@ -1953,56 +1940,56 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -2010,10 +1997,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y5" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -2022,7 +2009,7 @@
         <v>61</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>61</v>
@@ -2039,7 +2026,7 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN5" s="4" t="b">
         <v>0</v>
@@ -2057,56 +2044,56 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="U6" s="4" t="b">
         <v>0</v>
@@ -2114,10 +2101,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y6" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2126,10 +2113,10 @@
         <v>61</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -2143,7 +2130,7 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN6" s="4" t="b">
         <v>0</v>
@@ -2161,29 +2148,29 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="J7" s="2">
         <v>3000.0</v>
@@ -2192,29 +2179,29 @@
         <v>3000.0</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -2222,10 +2209,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y7" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2234,13 +2221,13 @@
         <v>61</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -2253,7 +2240,7 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN7" s="4" t="b">
         <v>0</v>
@@ -2271,56 +2258,56 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="L8" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="N8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
@@ -2328,10 +2315,10 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y8" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>61</v>
@@ -2340,7 +2327,7 @@
         <v>61</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>61</v>
@@ -2357,7 +2344,7 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN8" s="4" t="b">
         <v>0</v>
@@ -2375,56 +2362,56 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
@@ -2434,10 +2421,10 @@
         <v>44090.26538194444583</v>
       </c>
       <c r="X9" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y9" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>61</v>
@@ -2446,10 +2433,10 @@
         <v>61</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
@@ -2463,7 +2450,7 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN9" s="4" t="b">
         <v>0</v>
@@ -2481,56 +2468,56 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -2538,10 +2525,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y10" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2550,7 +2537,7 @@
         <v>61</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>61</v>
@@ -2567,7 +2554,7 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN10" s="4" t="b">
         <v>0</v>
@@ -2585,56 +2572,56 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="O11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="U11" s="4" t="b">
         <v>0</v>
@@ -2642,10 +2629,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y11" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2654,10 +2641,10 @@
         <v>61</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -2671,7 +2658,7 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN11" s="4" t="b">
         <v>0</v>
@@ -2689,56 +2676,56 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="L12" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R12" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="U12" s="4" t="b">
         <v>0</v>
@@ -2746,10 +2733,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y12" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2758,7 +2745,7 @@
         <v>61</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC12" s="4" t="s">
         <v>61</v>
@@ -2775,7 +2762,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN12" s="4" t="b">
         <v>0</v>
@@ -2793,54 +2780,54 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="U13" s="4" t="b">
         <v>0</v>
@@ -2848,10 +2835,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y13" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2860,10 +2847,10 @@
         <v>61</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
@@ -2877,7 +2864,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN13" s="4" t="b">
         <v>0</v>
@@ -2895,56 +2882,56 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="O14" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
@@ -2954,10 +2941,10 @@
         <v>44284.38123842592904</v>
       </c>
       <c r="X14" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y14" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>61</v>
@@ -2966,7 +2953,7 @@
         <v>61</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>61</v>
@@ -2983,7 +2970,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN14" s="4" t="b">
         <v>0</v>
@@ -3001,56 +2988,56 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="U15" s="4" t="b">
         <v>0</v>
@@ -3058,10 +3045,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y15" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3070,7 +3057,7 @@
         <v>61</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>61</v>
@@ -3087,7 +3074,7 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN15" s="4" t="b">
         <v>0</v>
@@ -3105,56 +3092,56 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="L16" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="U16" s="4" t="b">
         <v>0</v>
@@ -3162,10 +3149,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y16" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3174,7 +3161,7 @@
         <v>61</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>61</v>
@@ -3191,7 +3178,7 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN16" s="4" t="b">
         <v>1</v>
@@ -3209,56 +3196,56 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>0</v>
@@ -3266,10 +3253,10 @@
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y17" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>61</v>
@@ -3278,7 +3265,7 @@
         <v>61</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>61</v>
@@ -3295,7 +3282,7 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN17" s="4" t="b">
         <v>0</v>
@@ -3313,56 +3300,56 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="O18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
@@ -3372,10 +3359,10 @@
         <v>44089.37105324074219</v>
       </c>
       <c r="X18" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y18" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3384,10 +3371,10 @@
         <v>61</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -3401,7 +3388,7 @@
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN18" s="4" t="b">
         <v>0</v>
@@ -3419,56 +3406,56 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="L19" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="O19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="U19" s="4" t="b">
         <v>0</v>
@@ -3478,10 +3465,10 @@
         <v>44435.29143518518686</v>
       </c>
       <c r="X19" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y19" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>61</v>
@@ -3490,7 +3477,7 @@
         <v>61</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>61</v>
@@ -3507,7 +3494,7 @@
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN19" s="4" t="b">
         <v>0</v>
@@ -3525,38 +3512,38 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="L20" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="M20" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>56</v>
@@ -3566,13 +3553,13 @@
         <v>57</v>
       </c>
       <c r="R20" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>0</v>
@@ -3580,10 +3567,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y20" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3592,7 +3579,7 @@
         <v>61</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC20" s="4" t="s">
         <v>61</v>
@@ -3609,7 +3596,7 @@
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN20" s="4" t="b">
         <v>0</v>
@@ -3627,56 +3614,56 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="L21" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="M21" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="U21" s="4" t="b">
         <v>0</v>
@@ -3684,10 +3671,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Y21" s="5">
-        <v>46065.58348379629751</v>
+        <v>46066.75016203703854</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>61</v>
@@ -3696,10 +3683,10 @@
         <v>61</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
@@ -3713,7 +3700,7 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN21" s="4" t="b">
         <v>0</v>

--- a/output/Export_Lead.xlsx
+++ b/output/Export_Lead.xlsx
@@ -1685,10 +1685,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y2" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>61</v>
@@ -1789,10 +1789,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y3" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>61</v>
@@ -1893,10 +1893,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y4" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>61</v>
@@ -1997,10 +1997,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y5" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>61</v>
@@ -2101,10 +2101,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y6" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>61</v>
@@ -2209,10 +2209,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y7" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>61</v>
@@ -2315,10 +2315,10 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y8" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>61</v>
@@ -2421,10 +2421,10 @@
         <v>44090.26538194444583</v>
       </c>
       <c r="X9" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y9" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>61</v>
@@ -2525,10 +2525,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y10" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>61</v>
@@ -2629,10 +2629,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y11" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>61</v>
@@ -2733,10 +2733,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y12" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>61</v>
@@ -2835,10 +2835,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y13" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>61</v>
@@ -2941,10 +2941,10 @@
         <v>44284.38123842592904</v>
       </c>
       <c r="X14" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y14" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>61</v>
@@ -3045,10 +3045,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y15" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>61</v>
@@ -3149,10 +3149,10 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y16" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>61</v>
@@ -3253,10 +3253,10 @@
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y17" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>61</v>
@@ -3359,10 +3359,10 @@
         <v>44089.37105324074219</v>
       </c>
       <c r="X18" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y18" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>61</v>
@@ -3465,10 +3465,10 @@
         <v>44435.29143518518686</v>
       </c>
       <c r="X19" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y19" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>61</v>
@@ -3567,10 +3567,10 @@
       <c r="V20" s="4"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y20" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>61</v>
@@ -3671,10 +3671,10 @@
       <c r="V21" s="4"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Y21" s="5">
-        <v>46066.75016203703854</v>
+        <v>46071.66682870370278</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>61</v>
